--- a/data/trans_orig/P6715-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6715-Estudios-trans_orig.xlsx
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5383</v>
+        <v>5026</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.006907470956890997</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03924996828568551</v>
+        <v>0.03664924274399059</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4431</v>
+        <v>4755</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002958812785678268</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01384063722132842</v>
+        <v>0.01485312138270843</v>
       </c>
     </row>
     <row r="5">
@@ -805,19 +805,19 @@
         <v>4089</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12715</v>
+        <v>12976</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02234478555477738</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.005637993914034894</v>
+        <v>0.005620172459613576</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06947520087020505</v>
+        <v>0.07090281341890804</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -826,19 +826,19 @@
         <v>5745</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2163</v>
+        <v>2274</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12560</v>
+        <v>12530</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04189537340896383</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01577460640698579</v>
+        <v>0.01657904111727456</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09158502751130917</v>
+        <v>0.09136668540472145</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>8</v>
@@ -847,19 +847,19 @@
         <v>9835</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4362</v>
+        <v>4439</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>18452</v>
+        <v>19763</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03071927307293112</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01362374249738311</v>
+        <v>0.01386625124591917</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05763292376504547</v>
+        <v>0.06172793409671985</v>
       </c>
     </row>
     <row r="6">
@@ -876,19 +876,19 @@
         <v>26464</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16741</v>
+        <v>17010</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>37174</v>
+        <v>37861</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1445988590869088</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09146928800359545</v>
+        <v>0.09294117676504556</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2031163289655454</v>
+        <v>0.2068711016824538</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>22</v>
@@ -897,19 +897,19 @@
         <v>23639</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>15851</v>
+        <v>16709</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>33197</v>
+        <v>34189</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1723691084694008</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1155847657992081</v>
+        <v>0.12183999820538</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.242064718255659</v>
+        <v>0.2492997753644245</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>46</v>
@@ -918,19 +918,19 @@
         <v>50103</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>38300</v>
+        <v>37717</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>65005</v>
+        <v>65260</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1564942357663316</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1196271834021891</v>
+        <v>0.1178074213541342</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2030400678860855</v>
+        <v>0.2038365998656358</v>
       </c>
     </row>
     <row r="7">
@@ -947,19 +947,19 @@
         <v>34564</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>24305</v>
+        <v>24147</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>47026</v>
+        <v>47045</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1888579270694726</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.132803327906684</v>
+        <v>0.1319393383558066</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2569487409328839</v>
+        <v>0.2570485585298822</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -968,19 +968,19 @@
         <v>22656</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14458</v>
+        <v>14533</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>31900</v>
+        <v>32784</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1652018617995851</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1054266541138568</v>
+        <v>0.1059696494199398</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2326123161671099</v>
+        <v>0.2390588978042047</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>53</v>
@@ -989,19 +989,19 @@
         <v>57220</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>43753</v>
+        <v>44056</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>72138</v>
+        <v>72721</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1787248597259819</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1366606005496739</v>
+        <v>0.1376065834215673</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2253189393144566</v>
+        <v>0.2271395033120247</v>
       </c>
     </row>
     <row r="8">
@@ -1018,19 +1018,19 @@
         <v>117900</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>104505</v>
+        <v>104163</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>130684</v>
+        <v>131792</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6441984282888412</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5710085330315887</v>
+        <v>0.5691424075688426</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7140510371187525</v>
+        <v>0.7201040428367229</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>78</v>
@@ -1039,19 +1039,19 @@
         <v>84152</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>72408</v>
+        <v>72299</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>95651</v>
+        <v>94812</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6136261853651592</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5279874827068062</v>
+        <v>0.5271925003818282</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6974738252630519</v>
+        <v>0.691353890956207</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>194</v>
@@ -1060,19 +1060,19 @@
         <v>202053</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>183595</v>
+        <v>184758</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>219624</v>
+        <v>219105</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6311028186490771</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5734505984406856</v>
+        <v>0.57708340196054</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6859868030241901</v>
+        <v>0.6843653788544363</v>
       </c>
     </row>
     <row r="9">
@@ -1167,16 +1167,16 @@
         <v>1024</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8360</v>
+        <v>8506</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003415188833275299</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001121084461029018</v>
+        <v>0.001120419521321566</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.009151182783408754</v>
+        <v>0.009310952707009207</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -1185,19 +1185,19 @@
         <v>4243</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1071</v>
+        <v>1050</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10027</v>
+        <v>9763</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.007435191782219648</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001876836627829916</v>
+        <v>0.001839848494816141</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01757229612694503</v>
+        <v>0.01710977226613545</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -1206,19 +1206,19 @@
         <v>7363</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3183</v>
+        <v>3162</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14961</v>
+        <v>15055</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.004960737146121347</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002144973150651333</v>
+        <v>0.002130373406389721</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01008020674929576</v>
+        <v>0.01014384750291828</v>
       </c>
     </row>
     <row r="11">
@@ -1235,19 +1235,19 @@
         <v>12845</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7097</v>
+        <v>6839</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>21083</v>
+        <v>21402</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01406092650765368</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.007768625890661865</v>
+        <v>0.007485866547193549</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02307833892724625</v>
+        <v>0.02342768626667005</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>13</v>
@@ -1256,19 +1256,19 @@
         <v>13443</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>7222</v>
+        <v>7370</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>22406</v>
+        <v>23374</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02355838268431498</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01265728330906245</v>
+        <v>0.0129161073833908</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03926713906031876</v>
+        <v>0.04096293163263662</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>26</v>
@@ -1277,19 +1277,19 @@
         <v>26288</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>16848</v>
+        <v>17969</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>37642</v>
+        <v>36997</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01771236098583554</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01135163490723905</v>
+        <v>0.01210700726837534</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02536226474500512</v>
+        <v>0.02492769811477471</v>
       </c>
     </row>
     <row r="12">
@@ -1306,19 +1306,19 @@
         <v>104405</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>87304</v>
+        <v>86655</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>124766</v>
+        <v>124924</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1142838198832389</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09556526247079646</v>
+        <v>0.09485486935077131</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1365716193713479</v>
+        <v>0.136744936358339</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>94</v>
@@ -1327,19 +1327,19 @@
         <v>101255</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>83875</v>
+        <v>84619</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>122194</v>
+        <v>122982</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1774501957555782</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1469924336106913</v>
+        <v>0.148295504378735</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2141474420505512</v>
+        <v>0.215528614122557</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>196</v>
@@ -1348,19 +1348,19 @@
         <v>205659</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>180806</v>
+        <v>179865</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>233681</v>
+        <v>236072</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1385690472569477</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1218237551832638</v>
+        <v>0.1211894418290936</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1574497607498212</v>
+        <v>0.1590605398852262</v>
       </c>
     </row>
     <row r="13">
@@ -1377,19 +1377,19 @@
         <v>229336</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>203087</v>
+        <v>202050</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>255685</v>
+        <v>257188</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2510367404039666</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2223039167524982</v>
+        <v>0.2211693344887689</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2798794921100876</v>
+        <v>0.2815238795797804</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>136</v>
@@ -1398,19 +1398,19 @@
         <v>142083</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>122869</v>
+        <v>121978</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>164847</v>
+        <v>163478</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2490035208274763</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2153306966326271</v>
+        <v>0.2137686496816266</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2888968021872165</v>
+        <v>0.2864986995147268</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>356</v>
@@ -1419,19 +1419,19 @@
         <v>371419</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>339311</v>
+        <v>337238</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>407489</v>
+        <v>406801</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2502550397122008</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2286207963475181</v>
+        <v>0.2272241532582991</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2745583630151167</v>
+        <v>0.2740945903898301</v>
       </c>
     </row>
     <row r="14">
@@ -1448,19 +1448,19 @@
         <v>563849</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>534426</v>
+        <v>533269</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>593833</v>
+        <v>593664</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6172033243718655</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5849960227049837</v>
+        <v>0.5837291680674849</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.650023988891185</v>
+        <v>0.6498390509609759</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>286</v>
@@ -1469,19 +1469,19 @@
         <v>309585</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>285027</v>
+        <v>283857</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>331977</v>
+        <v>335428</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5425527089504109</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4995140885340768</v>
+        <v>0.4974635738642246</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5817959320341243</v>
+        <v>0.5878427148359409</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>813</v>
@@ -1490,19 +1490,19 @@
         <v>873434</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>835507</v>
+        <v>831752</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>914315</v>
+        <v>911271</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5885028148988946</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.562948354713915</v>
+        <v>0.5604180405581718</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6160472685497735</v>
+        <v>0.6139967347632392</v>
       </c>
     </row>
     <row r="15">
@@ -1594,19 +1594,19 @@
         <v>3130</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9345</v>
+        <v>9221</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009895836529262672</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002892466937245662</v>
+        <v>0.002897672043796189</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02954883923062665</v>
+        <v>0.02915579584866996</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5402</v>
+        <v>5358</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.004231890761056191</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0231866971366123</v>
+        <v>0.02299919365645056</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -1636,19 +1636,19 @@
         <v>4116</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10682</v>
+        <v>10442</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.007493252782936879</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002206887366934836</v>
+        <v>0.002198692448703627</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01944859997296803</v>
+        <v>0.01901223767910705</v>
       </c>
     </row>
     <row r="17">
@@ -1665,19 +1665,19 @@
         <v>5035</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1815</v>
+        <v>1852</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>11499</v>
+        <v>11230</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01592072655070306</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.005739303077995316</v>
+        <v>0.005857563953529666</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03636036903254209</v>
+        <v>0.03550881778138154</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5571</v>
+        <v>6090</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.005151723382754336</v>
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0239113069045222</v>
+        <v>0.02614142875578394</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6</v>
@@ -1707,19 +1707,19 @@
         <v>6235</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2469</v>
+        <v>2429</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>13485</v>
+        <v>13310</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01135263338132981</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.004496057058715894</v>
+        <v>0.0044218032977157</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0245523941200945</v>
+        <v>0.02423396935786773</v>
       </c>
     </row>
     <row r="18">
@@ -1736,19 +1736,19 @@
         <v>30965</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>20412</v>
+        <v>20373</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>43519</v>
+        <v>44007</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.09790996920296464</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.06454184100981498</v>
+        <v>0.06441786857180248</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1376067620156536</v>
+        <v>0.1391501756438029</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>15</v>
@@ -1757,19 +1757,19 @@
         <v>16296</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>9396</v>
+        <v>9408</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>27136</v>
+        <v>25752</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.06994472597226335</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04032843206399436</v>
+        <v>0.04038149881015995</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1164733728275205</v>
+        <v>0.1105310707946272</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>42</v>
@@ -1778,19 +1778,19 @@
         <v>47261</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>34887</v>
+        <v>34009</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>62541</v>
+        <v>62095</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.08604741938384694</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.06351827503149658</v>
+        <v>0.061919871457615</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1138684260828431</v>
+        <v>0.1130571911874551</v>
       </c>
     </row>
     <row r="19">
@@ -1807,19 +1807,19 @@
         <v>49653</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>36890</v>
+        <v>37242</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>65007</v>
+        <v>65111</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1570013613750711</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1166450383150882</v>
+        <v>0.1177600674715153</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2055498733224125</v>
+        <v>0.2058787309837235</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>46</v>
@@ -1828,19 +1828,19 @@
         <v>50869</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>37124</v>
+        <v>38515</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>64576</v>
+        <v>66211</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2183399391175539</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1593420684919618</v>
+        <v>0.1653131143447456</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2771726333704459</v>
+        <v>0.2841910129062841</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>93</v>
@@ -1849,19 +1849,19 @@
         <v>100522</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>82258</v>
+        <v>83134</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>120322</v>
+        <v>120570</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1830205140890802</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1497670294399991</v>
+        <v>0.1513617419024347</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2190711557302507</v>
+        <v>0.2195214242046291</v>
       </c>
     </row>
     <row r="20">
@@ -1878,19 +1878,19 @@
         <v>227475</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>208939</v>
+        <v>209132</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>243450</v>
+        <v>242273</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7192721063419986</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6606628160509518</v>
+        <v>0.6612710787342858</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7697863424950696</v>
+        <v>0.7660625910281538</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>146</v>
@@ -1899,19 +1899,19 @@
         <v>163630</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>148332</v>
+        <v>149562</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>178815</v>
+        <v>178425</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7023317207663722</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.636669823686254</v>
+        <v>0.6419474767692086</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7675101918345344</v>
+        <v>0.7658350113539631</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>350</v>
@@ -1920,19 +1920,19 @@
         <v>391105</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>368242</v>
+        <v>367361</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>413957</v>
+        <v>412780</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7120861803628061</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6704600358077918</v>
+        <v>0.6688565470394791</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7536938747250645</v>
+        <v>0.751549982339498</v>
       </c>
     </row>
     <row r="21">
@@ -2024,19 +2024,19 @@
         <v>6250</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2089</v>
+        <v>2277</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>13201</v>
+        <v>13152</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.004423455416533268</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001478321366867057</v>
+        <v>0.001611953243217372</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.00934388625886509</v>
+        <v>0.009309193650002897</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -2045,19 +2045,19 @@
         <v>6176</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2053</v>
+        <v>2174</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>12434</v>
+        <v>12396</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.006564931138841881</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.002182397346358759</v>
+        <v>0.002311159313227159</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01321697702844014</v>
+        <v>0.01317664052789575</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>12</v>
@@ -2066,19 +2066,19 @@
         <v>12425</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6081</v>
+        <v>7055</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>21590</v>
+        <v>21170</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.005279413004796603</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.002583887918990204</v>
+        <v>0.002997555078835029</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.009173342153925606</v>
+        <v>0.008994990149855492</v>
       </c>
     </row>
     <row r="23">
@@ -2095,19 +2095,19 @@
         <v>21970</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>14122</v>
+        <v>14485</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>32863</v>
+        <v>32889</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01555032811805945</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.009995851502265871</v>
+        <v>0.01025267260010577</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02326067738958191</v>
+        <v>0.02327864751819949</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>19</v>
@@ -2116,19 +2116,19 @@
         <v>20388</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>12600</v>
+        <v>13011</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>30981</v>
+        <v>31483</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02167295722211934</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01339423029931062</v>
+        <v>0.01383033569279216</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03293343618386254</v>
+        <v>0.03346632457000154</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>40</v>
@@ -2137,19 +2137,19 @@
         <v>42358</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>30397</v>
+        <v>30207</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>59078</v>
+        <v>57382</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.0179975708241744</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01291551442515819</v>
+        <v>0.01283465843825981</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02510161439716376</v>
+        <v>0.02438115678295316</v>
       </c>
     </row>
     <row r="24">
@@ -2166,19 +2166,19 @@
         <v>161834</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>137694</v>
+        <v>137643</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>188366</v>
+        <v>189099</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1145456032301859</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.09745964776458194</v>
+        <v>0.09742359996870101</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1333255055900798</v>
+        <v>0.1338438898647991</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>131</v>
@@ -2187,19 +2187,19 @@
         <v>141189</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>119633</v>
+        <v>118789</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>165626</v>
+        <v>164063</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1500846718446365</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1271709050754339</v>
+        <v>0.1262733891150508</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1760611308049166</v>
+        <v>0.1743996872735027</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>284</v>
@@ -2208,19 +2208,19 @@
         <v>303022</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>270479</v>
+        <v>272865</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>332106</v>
+        <v>338541</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1287507306306293</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1149233735035329</v>
+        <v>0.1159371656923139</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.141107848073737</v>
+        <v>0.1438422134802704</v>
       </c>
     </row>
     <row r="25">
@@ -2237,19 +2237,19 @@
         <v>313553</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>281618</v>
+        <v>283395</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>347589</v>
+        <v>347788</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2219325988210859</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1993287292293898</v>
+        <v>0.2005864108637355</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2460230867907044</v>
+        <v>0.2461639726995632</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>203</v>
@@ -2258,19 +2258,19 @@
         <v>215608</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>192078</v>
+        <v>189175</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>242268</v>
+        <v>242165</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2291927685436063</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2041805247350718</v>
+        <v>0.2010937651768684</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2575325338575023</v>
+        <v>0.2574228176081658</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>502</v>
@@ -2279,19 +2279,19 @@
         <v>529161</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>486079</v>
+        <v>485167</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>574072</v>
+        <v>568004</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2248345216873286</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2065292266225036</v>
+        <v>0.206141655125532</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2439166633290223</v>
+        <v>0.2413385204498922</v>
       </c>
     </row>
     <row r="26">
@@ -2308,19 +2308,19 @@
         <v>909225</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>873266</v>
+        <v>870154</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>946060</v>
+        <v>943448</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6435480144141354</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6180968200009592</v>
+        <v>0.6158939986829143</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6696202867507463</v>
+        <v>0.66777165705812</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>510</v>
@@ -2329,19 +2329,19 @@
         <v>557367</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>523872</v>
+        <v>525206</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>589187</v>
+        <v>589652</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.592484671250796</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5568792498201817</v>
+        <v>0.5582970844362418</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6263091167552745</v>
+        <v>0.6268041259055415</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1357</v>
@@ -2350,19 +2350,19 @@
         <v>1466591</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1412207</v>
+        <v>1419165</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1510985</v>
+        <v>1513925</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6231377638530711</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6000303187869939</v>
+        <v>0.6029869613335685</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6420002580352535</v>
+        <v>0.6432493603732431</v>
       </c>
     </row>
     <row r="27">
@@ -2693,19 +2693,19 @@
         <v>5442</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2052</v>
+        <v>2084</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11768</v>
+        <v>11935</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0385127868001712</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01452377236785718</v>
+        <v>0.01475045768937765</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08328534469883239</v>
+        <v>0.08446913491458567</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -2727,19 +2727,19 @@
         <v>5442</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2066</v>
+        <v>2115</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12103</v>
+        <v>11299</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02586078940767507</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009818965346755708</v>
+        <v>0.01004882487208273</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05751409167072455</v>
+        <v>0.0536961046673488</v>
       </c>
     </row>
     <row r="5">
@@ -2756,19 +2756,19 @@
         <v>3424</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>965</v>
+        <v>971</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9596</v>
+        <v>9244</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02423555791919711</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.006831466353824452</v>
+        <v>0.006871968160054579</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06791332485403108</v>
+        <v>0.06542359131287301</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -2777,19 +2777,19 @@
         <v>2791</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7637</v>
+        <v>7370</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04037201765621398</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01255756097003576</v>
+        <v>0.01249779784297159</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1104787528896086</v>
+        <v>0.1066109633454488</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>6</v>
@@ -2798,19 +2798,19 @@
         <v>6215</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2633</v>
+        <v>2172</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>13022</v>
+        <v>12923</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02953661410025614</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01251324203608051</v>
+        <v>0.01032282409282187</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06188326513319387</v>
+        <v>0.06141199893463167</v>
       </c>
     </row>
     <row r="6">
@@ -2827,19 +2827,19 @@
         <v>38171</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>27919</v>
+        <v>27929</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>49989</v>
+        <v>49779</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2701401061171299</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1975898900142984</v>
+        <v>0.197658981350556</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3537826459472465</v>
+        <v>0.3522966914032004</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>15</v>
@@ -2848,19 +2848,19 @@
         <v>15447</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>9502</v>
+        <v>9546</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>24372</v>
+        <v>23025</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2234507866376493</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1374514376232646</v>
+        <v>0.1380971810292544</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3525587103579975</v>
+        <v>0.3330749735132635</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>51</v>
@@ -2869,19 +2869,19 @@
         <v>53617</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>41077</v>
+        <v>42473</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>66373</v>
+        <v>67068</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2548020016227238</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1952077154048568</v>
+        <v>0.2018430350244284</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3154203134488609</v>
+        <v>0.3187214409907098</v>
       </c>
     </row>
     <row r="7">
@@ -2898,19 +2898,19 @@
         <v>32204</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>22699</v>
+        <v>23926</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>43414</v>
+        <v>43672</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2279151850811531</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1606470051155975</v>
+        <v>0.1693295635835587</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3072479453541188</v>
+        <v>0.3090744160006879</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>24</v>
@@ -2919,19 +2919,19 @@
         <v>23342</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16181</v>
+        <v>16288</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>32365</v>
+        <v>31017</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.337668606298148</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2340702901453771</v>
+        <v>0.2356201819430494</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4681939290218301</v>
+        <v>0.4486956466025288</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>55</v>
@@ -2940,19 +2940,19 @@
         <v>55547</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>43712</v>
+        <v>43969</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>69061</v>
+        <v>69550</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2639707425836493</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2077287752773539</v>
+        <v>0.208949355249739</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3281934553126384</v>
+        <v>0.3305206929970123</v>
       </c>
     </row>
     <row r="8">
@@ -2969,19 +2969,19 @@
         <v>62058</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>50650</v>
+        <v>50134</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>73948</v>
+        <v>74670</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4391963640823487</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3584571762441439</v>
+        <v>0.3548060195463102</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5233418925502884</v>
+        <v>0.5284523561536285</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>27</v>
@@ -2990,19 +2990,19 @@
         <v>27548</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>19532</v>
+        <v>20203</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>34823</v>
+        <v>36157</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3985085894079887</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2825527251717967</v>
+        <v>0.2922528976285024</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5037505403340817</v>
+        <v>0.5230414500843213</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>84</v>
@@ -3011,19 +3011,19 @@
         <v>89606</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>75690</v>
+        <v>75577</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>104653</v>
+        <v>103831</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4258298522856957</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3596979083436146</v>
+        <v>0.3591619060991564</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4973381959874892</v>
+        <v>0.4934279134809675</v>
       </c>
     </row>
     <row r="9">
@@ -3115,19 +3115,19 @@
         <v>14923</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7801</v>
+        <v>8944</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24474</v>
+        <v>26059</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01616388741324059</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008449761989108533</v>
+        <v>0.009687948425959091</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02650950126929489</v>
+        <v>0.02822700186462733</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -3136,19 +3136,19 @@
         <v>12376</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6407</v>
+        <v>7130</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20917</v>
+        <v>21712</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0190244608178533</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.009849266895752393</v>
+        <v>0.0109599901320752</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03215369532170927</v>
+        <v>0.03337470150781918</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>25</v>
@@ -3157,19 +3157,19 @@
         <v>27299</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>18519</v>
+        <v>18295</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>39596</v>
+        <v>39503</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01734637100333217</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01176747899986364</v>
+        <v>0.01162501528134188</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02516028389405611</v>
+        <v>0.02510147363378527</v>
       </c>
     </row>
     <row r="11">
@@ -3186,19 +3186,19 @@
         <v>35817</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>24817</v>
+        <v>25113</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>49053</v>
+        <v>49067</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03879609410161468</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02688103449960091</v>
+        <v>0.02720236968546533</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05313348543071982</v>
+        <v>0.05314907485286414</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>27</v>
@@ -3207,19 +3207,19 @@
         <v>27580</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>19014</v>
+        <v>18537</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>40262</v>
+        <v>39391</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04239488560623906</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02922734898613389</v>
+        <v>0.0284953095321697</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0618904669187819</v>
+        <v>0.06055096023435106</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>60</v>
@@ -3228,19 +3228,19 @@
         <v>63396</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>47636</v>
+        <v>48061</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>82229</v>
+        <v>80398</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04028373706561528</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0302694621784355</v>
+        <v>0.03053916221353816</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05225075193633365</v>
+        <v>0.05108733895833593</v>
       </c>
     </row>
     <row r="12">
@@ -3257,19 +3257,19 @@
         <v>135387</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>112001</v>
+        <v>114941</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>158559</v>
+        <v>159941</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1466499182299086</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1213182227904087</v>
+        <v>0.1245029458669355</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1717488546043669</v>
+        <v>0.1732466597393824</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>112</v>
@@ -3278,19 +3278,19 @@
         <v>115369</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>96307</v>
+        <v>97327</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>135676</v>
+        <v>137277</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1773433729784002</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1480405926052265</v>
+        <v>0.1496081578235811</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2085581514899869</v>
+        <v>0.2110185685242765</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>235</v>
@@ -3299,19 +3299,19 @@
         <v>250757</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>222525</v>
+        <v>224241</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>282328</v>
+        <v>282723</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1593377613402391</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1413985042307399</v>
+        <v>0.1424890654320742</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.179399088378464</v>
+        <v>0.1796499185107015</v>
       </c>
     </row>
     <row r="13">
@@ -3328,19 +3328,19 @@
         <v>294630</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>266550</v>
+        <v>265909</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>325554</v>
+        <v>323366</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3191401372312404</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2887232850140971</v>
+        <v>0.2880298283081032</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3526360232570016</v>
+        <v>0.3502662494273475</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>197</v>
@@ -3349,19 +3349,19 @@
         <v>197296</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>174667</v>
+        <v>171835</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>220718</v>
+        <v>220479</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3032786714474838</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2684944635747862</v>
+        <v>0.2641414787376402</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3392824443094969</v>
+        <v>0.3389148249445177</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>477</v>
@@ -3370,19 +3370,19 @@
         <v>491927</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>456173</v>
+        <v>458960</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>529628</v>
+        <v>533589</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3125834367550886</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2898644631789195</v>
+        <v>0.2916352819825707</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.336539861055678</v>
+        <v>0.3390565934462155</v>
       </c>
     </row>
     <row r="14">
@@ -3399,19 +3399,19 @@
         <v>442444</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>410200</v>
+        <v>410851</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>471128</v>
+        <v>472706</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4792499630239958</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4443232787144862</v>
+        <v>0.4450282555378499</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5103201288212523</v>
+        <v>0.5120295782577269</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>288</v>
@@ -3420,19 +3420,19 @@
         <v>297922</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>273132</v>
+        <v>273663</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>326438</v>
+        <v>325061</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4579586091500236</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4198524520527022</v>
+        <v>0.4206679574883748</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5017928254896593</v>
+        <v>0.4996770678163071</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>702</v>
@@ -3441,19 +3441,19 @@
         <v>740366</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>698359</v>
+        <v>698002</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>780239</v>
+        <v>777355</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4704486938357249</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4437563956700769</v>
+        <v>0.44352960405914</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4957846395476723</v>
+        <v>0.4939523102954401</v>
       </c>
     </row>
     <row r="15">
@@ -3545,19 +3545,19 @@
         <v>3065</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8122</v>
+        <v>8137</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.008795457574795671</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002646748528252812</v>
+        <v>0.002628024489381795</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02331069759886624</v>
+        <v>0.023351996577856</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -3566,19 +3566,19 @@
         <v>3883</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>950</v>
+        <v>982</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9556</v>
+        <v>8821</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01258975651885571</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.003080597629891538</v>
+        <v>0.00318222911477951</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03097898822004242</v>
+        <v>0.02859882714431791</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -3587,19 +3587,19 @@
         <v>6948</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3064</v>
+        <v>2973</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>14229</v>
+        <v>14001</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01057712783708541</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004664704091780671</v>
+        <v>0.004526158122669524</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02166167138051654</v>
+        <v>0.02131352219314628</v>
       </c>
     </row>
     <row r="17">
@@ -3616,19 +3616,19 @@
         <v>15532</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9311</v>
+        <v>7943</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>26248</v>
+        <v>25337</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04457464743130327</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02672293270626906</v>
+        <v>0.02279551054141506</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07532957789300923</v>
+        <v>0.07271522997250551</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -3637,19 +3637,19 @@
         <v>5711</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2012</v>
+        <v>2763</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11676</v>
+        <v>11834</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01851500916640653</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.006524066277579393</v>
+        <v>0.008956100994572176</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03785457621177324</v>
+        <v>0.03836618749177647</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>19</v>
@@ -3658,19 +3658,19 @@
         <v>21243</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>13440</v>
+        <v>13123</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>33379</v>
+        <v>31654</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03233795147584097</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02045995313331266</v>
+        <v>0.0199771372983909</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05081343781543744</v>
+        <v>0.04818796433105875</v>
       </c>
     </row>
     <row r="18">
@@ -3687,19 +3687,19 @@
         <v>38121</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>26672</v>
+        <v>26280</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>54055</v>
+        <v>50648</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1094065949430735</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0765483541681545</v>
+        <v>0.07542186528330584</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1551346390865127</v>
+        <v>0.1453585193623073</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>29</v>
@@ -3708,19 +3708,19 @@
         <v>28734</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>19919</v>
+        <v>19708</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>39161</v>
+        <v>40036</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0931553749966032</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06457638938685564</v>
+        <v>0.0638920026933459</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1269604421810126</v>
+        <v>0.1297965002784098</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>60</v>
@@ -3729,19 +3729,19 @@
         <v>66855</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>51503</v>
+        <v>52216</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>84940</v>
+        <v>85346</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1017755896555529</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.07840408208057825</v>
+        <v>0.07948886484850151</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.129306336839786</v>
+        <v>0.1299246279512607</v>
       </c>
     </row>
     <row r="19">
@@ -3758,19 +3758,19 @@
         <v>74590</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>59044</v>
+        <v>60520</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>91180</v>
+        <v>93713</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2140691098233801</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1694545482840241</v>
+        <v>0.1736891278913625</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2616818659223332</v>
+        <v>0.2689505114337976</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>63</v>
@@ -3779,19 +3779,19 @@
         <v>64861</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>52077</v>
+        <v>51535</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>81007</v>
+        <v>80809</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.21027684471676</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1688319474973006</v>
+        <v>0.16707505662554</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.262623040131452</v>
+        <v>0.2619810108366137</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>132</v>
@@ -3800,19 +3800,19 @@
         <v>139450</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>118015</v>
+        <v>120054</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>159744</v>
+        <v>162118</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2122883945801172</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1796568962260911</v>
+        <v>0.1827603540304749</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2431819719268106</v>
+        <v>0.2467953750037619</v>
       </c>
     </row>
     <row r="20">
@@ -3829,19 +3829,19 @@
         <v>217131</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>196632</v>
+        <v>195738</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>234250</v>
+        <v>236026</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6231541902274474</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5643239227679464</v>
+        <v>0.56175822165338</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6722861120381387</v>
+        <v>0.6773826641965703</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>197</v>
@@ -3850,19 +3850,19 @@
         <v>205264</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>186481</v>
+        <v>187280</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>221759</v>
+        <v>220295</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6654630146013746</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6045678583678372</v>
+        <v>0.6071598395417777</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7189404183105585</v>
+        <v>0.7141938995914133</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>400</v>
@@ -3871,19 +3871,19 @@
         <v>422395</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>398006</v>
+        <v>394838</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>445580</v>
+        <v>446821</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6430209364514036</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6058937911357156</v>
+        <v>0.601070469486361</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6783170549692513</v>
+        <v>0.680206214190414</v>
       </c>
     </row>
     <row r="21">
@@ -3975,19 +3975,19 @@
         <v>23429</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>15698</v>
+        <v>15108</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>36840</v>
+        <v>35272</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01658176233783367</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01111040626808917</v>
+        <v>0.01069254997118891</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02607327631625394</v>
+        <v>0.02496334810798118</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>16</v>
@@ -3996,19 +3996,19 @@
         <v>16260</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>9263</v>
+        <v>9342</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>25549</v>
+        <v>25988</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01581479857463516</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.009009296835086738</v>
+        <v>0.0090863154599326</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02484990398612404</v>
+        <v>0.02527755718418285</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>37</v>
@@ -4017,19 +4017,19 @@
         <v>39689</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>28348</v>
+        <v>28307</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>53335</v>
+        <v>53481</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01625873317079852</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01161295454406053</v>
+        <v>0.01159631434126726</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02184903787405335</v>
+        <v>0.02190896052661031</v>
       </c>
     </row>
     <row r="23">
@@ -4046,19 +4046,19 @@
         <v>54773</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>42028</v>
+        <v>41707</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>72820</v>
+        <v>71336</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03876501104169471</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02974542833994673</v>
+        <v>0.02951792793382657</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05153833476217961</v>
+        <v>0.05048765561817105</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>36</v>
@@ -4067,19 +4067,19 @@
         <v>36082</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>25925</v>
+        <v>25731</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>50339</v>
+        <v>49303</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03509454507543582</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02521617846205112</v>
+        <v>0.02502701645109837</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04896195677998181</v>
+        <v>0.04795432025961038</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>85</v>
@@ -4088,19 +4088,19 @@
         <v>90854</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>73494</v>
+        <v>73312</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>113707</v>
+        <v>111221</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03721908720460647</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03010720854703673</v>
+        <v>0.03003279101856339</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04658108940291663</v>
+        <v>0.04556272239439534</v>
       </c>
     </row>
     <row r="24">
@@ -4117,19 +4117,19 @@
         <v>211679</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>183594</v>
+        <v>186920</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>239818</v>
+        <v>240327</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1498149718792011</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1299381021048089</v>
+        <v>0.1322914064806955</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1697298711664993</v>
+        <v>0.1700905016216489</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>156</v>
@@ -4138,19 +4138,19 @@
         <v>159550</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>138604</v>
+        <v>138005</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>183353</v>
+        <v>185116</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1551858207383791</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1348124855770287</v>
+        <v>0.1342294491909062</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1783375354454289</v>
+        <v>0.180052053204787</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>346</v>
@@ -4159,19 +4159,19 @@
         <v>371230</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>335431</v>
+        <v>336668</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>413320</v>
+        <v>410896</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.152077061584739</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1374118163225533</v>
+        <v>0.1379186016718017</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1693198732623298</v>
+        <v>0.1683265217738083</v>
       </c>
     </row>
     <row r="25">
@@ -4188,19 +4188,19 @@
         <v>401425</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>369437</v>
+        <v>368756</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>432225</v>
+        <v>438752</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.284106241924046</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.26146741652664</v>
+        <v>0.260985331574708</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3059052397166314</v>
+        <v>0.31052477913807</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>284</v>
@@ -4209,19 +4209,19 @@
         <v>285499</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>255081</v>
+        <v>257766</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>313494</v>
+        <v>315563</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2776889846018211</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2481033530307816</v>
+        <v>0.2507151305124233</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3049180719578914</v>
+        <v>0.3069309709832637</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>664</v>
@@ -4230,19 +4230,19 @@
         <v>686923</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>633061</v>
+        <v>643475</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>734569</v>
+        <v>733993</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2814034267626053</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2593381040833059</v>
+        <v>0.2636045263267189</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3009217727327322</v>
+        <v>0.3006859304722077</v>
       </c>
     </row>
     <row r="26">
@@ -4259,19 +4259,19 @@
         <v>721633</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>684382</v>
+        <v>685909</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>757254</v>
+        <v>760987</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5107320128172246</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4843683258439482</v>
+        <v>0.485448974345681</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5359427895480366</v>
+        <v>0.5385851927863804</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>512</v>
@@ -4280,19 +4280,19 @@
         <v>530734</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>499988</v>
+        <v>498021</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>562569</v>
+        <v>561985</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5162158510097289</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4863109174081425</v>
+        <v>0.4843976698873478</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5471792478485309</v>
+        <v>0.5466118834797048</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1186</v>
@@ -4301,19 +4301,19 @@
         <v>1252367</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1204921</v>
+        <v>1205410</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1306473</v>
+        <v>1308497</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5130416912772507</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4936049874016348</v>
+        <v>0.4938053078600845</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5352064640842271</v>
+        <v>0.5360358389362703</v>
       </c>
     </row>
     <row r="27">
